--- a/Резы/Респа для ОЕ-71б на 2019 год.xlsx
+++ b/Резы/Респа для ОЕ-71б на 2019 год.xlsx
@@ -795,7 +795,7 @@
       <c r="I3" s="3" t="inlineStr">
         <is>
           <t>II
-II
+IV
 IV</t>
         </is>
       </c>
@@ -830,8 +830,11 @@
       <c r="F4" s="8" t="n"/>
       <c r="G4" s="8" t="n"/>
       <c r="H4" s="7" t="n"/>
-      <c r="I4" s="3" t="n">
-        <v>207</v>
+      <c r="I4" s="3" t="inlineStr">
+        <is>
+          <t>207
+III</t>
+        </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
         <is>
@@ -1198,8 +1201,11 @@
         </is>
       </c>
       <c r="H16" s="7" t="n"/>
-      <c r="I16" s="3" t="n">
-        <v>207</v>
+      <c r="I16" s="3" t="inlineStr">
+        <is>
+          <t>207
+IV</t>
+        </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
         <is>
@@ -1233,7 +1239,8 @@
       <c r="H17" s="7" t="n"/>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>IV</t>
+          <t>IV
+207</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1962,7 +1969,7 @@
       <c r="G14" s="7" t="n"/>
       <c r="H14" s="3" t="inlineStr">
         <is>
-          <t>207
+          <t>IV
 215</t>
         </is>
       </c>
@@ -1991,10 +1998,8 @@
       <c r="E15" s="8" t="n"/>
       <c r="F15" s="8" t="n"/>
       <c r="G15" s="7" t="n"/>
-      <c r="H15" s="3" t="inlineStr">
-        <is>
-          <t>IV</t>
-        </is>
+      <c r="H15" s="3" t="n">
+        <v>207</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
@@ -2511,7 +2516,7 @@
       <c r="H8" s="7" t="n"/>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>II, 237</t>
+          <t>II</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -2763,7 +2768,7 @@
       <c r="G17" s="5" t="n"/>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>IV
+          <t>207
 216</t>
         </is>
       </c>
@@ -2877,10 +2882,8 @@
         </is>
       </c>
       <c r="E22" s="5" t="n"/>
-      <c r="I22" s="3" t="inlineStr">
-        <is>
-          <t>II</t>
-        </is>
+      <c r="I22" s="3" t="n">
+        <v>207</v>
       </c>
       <c r="J22" s="3" t="inlineStr">
         <is>
@@ -3241,8 +3244,11 @@
       </c>
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="5" t="n"/>
-      <c r="H8" s="3" t="n">
-        <v>237</v>
+      <c r="H8" s="3" t="inlineStr">
+        <is>
+          <t>II
+237</t>
+        </is>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>

--- a/Резы/Респа для ОЕ-71б на 2019 год.xlsx
+++ b/Резы/Респа для ОЕ-71б на 2019 год.xlsx
@@ -65,15 +65,15 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
+      <top style="thick"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
       <bottom style="thin"/>
       <diagonal/>
@@ -114,10 +114,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
@@ -159,28 +159,28 @@
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin"/>
       <top style="thin"/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
@@ -198,38 +198,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
+      <left style="thick"/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium"/>
-      <right style="medium"/>
+      <left style="thick"/>
+      <right style="thick"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin"/>
       <top/>
-      <bottom style="medium"/>
+      <bottom style="thick"/>
       <diagonal/>
     </border>
   </borders>
@@ -679,7 +679,7 @@
     <col width="73.5" customWidth="1" min="7" max="7"/>
     <col width="92.34999999999999" customWidth="1" min="8" max="8"/>
     <col width="17" customWidth="1" min="9" max="9"/>
-    <col width="29.5" customWidth="1" min="10" max="10"/>
+    <col width="26.5" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1" ht="34" customHeight="1">
@@ -1271,12 +1271,12 @@
       <c r="H18" s="12" t="n"/>
       <c r="I18" s="10" t="inlineStr">
         <is>
-          <t>АКТ_зал</t>
+          <t>ХЗ</t>
         </is>
       </c>
       <c r="J18" s="10" t="inlineStr">
         <is>
-          <t>Преображенский Ф.Ф.</t>
+          <t>Мерзоцид Г.Ч.</t>
         </is>
       </c>
     </row>
